--- a/xlsx/出版_intext.xlsx
+++ b/xlsx/出版_intext.xlsx
@@ -29,7 +29,7 @@
     <t>作品</t>
   </si>
   <si>
-    <t>政策_政策_美國_出版</t>
+    <t>政策_政策_美国_出版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%9D%83</t>
   </si>
   <si>
-    <t>著作权</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E4%B9%A6%E5%8F%B7</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E6%A5%AD</t>
   </si>
   <si>
-    <t>出版業</t>
+    <t>出版业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%BC%89</t>
   </si>
   <si>
-    <t>上載</t>
+    <t>上载</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%BC%89</t>
   </si>
   <si>
-    <t>下載</t>
+    <t>下载</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E6%AA%94%E6%A1%88</t>
   </si>
   <si>
-    <t>電腦檔案</t>
+    <t>电脑档案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%97</t>
@@ -101,37 +101,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%83%8F</t>
   </si>
   <si>
-    <t>圖像</t>
+    <t>图像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%AA%8C</t>
   </si>
   <si>
-    <t>網誌</t>
+    <t>网志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E5%B0%8D</t>
   </si>
   <si>
-    <t>校對</t>
+    <t>校对</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A8%E8%BC%AF</t>
   </si>
   <si>
-    <t>編輯</t>
+    <t>编辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E8%A1%8C</t>
   </si>
   <si>
-    <t>發行</t>
+    <t>发行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E6%9B%B8</t>
   </si>
   <si>
-    <t>電子書</t>
+    <t>电子书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%88%E6%9D%83%E6%B3%95</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%9C%E7%89%88</t>
   </si>
   <si>
-    <t>盜版</t>
+    <t>盗版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%BB%E7%89%88</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A4%87%E8%A3%BD</t>
   </si>
   <si>
-    <t>複製</t>
+    <t>复制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%8D%B0</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
